--- a/品質管理/トップページ.xlsx
+++ b/品質管理/トップページ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BA01E0-8842-456C-A878-95DB68E1C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF79D08A-EA86-40B7-B11C-5E034F613404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B56B0BE-939C-447F-AFBE-0B59C6DAA876}"/>
+    <workbookView minimized="1" xWindow="9675" yWindow="2895" windowWidth="11850" windowHeight="7875" activeTab="1" xr2:uid="{0B56B0BE-939C-447F-AFBE-0B59C6DAA876}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -649,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,9 +681,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -725,6 +722,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,12 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,15 +759,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,7 +1688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A1D14-0BB0-4B21-915F-253C0053CB0E}">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1721,7 +1720,7 @@
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1730,313 +1729,335 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="b">
+      <c r="A6" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="25"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="b">
+      <c r="A11" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="225" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="b">
+      <c r="A12" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="b">
+      <c r="A13" s="13" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="b">
+      <c r="A14" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="b">
+      <c r="A15" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="b">
+      <c r="A16" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="b">
+      <c r="A17" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="b">
+      <c r="A18" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="14" t="b">
+      <c r="A19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="b">
+      <c r="A20" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="b">
+      <c r="A21" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="14" t="b">
+      <c r="A22" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="14" t="b">
+      <c r="A23" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="14" t="b">
+      <c r="A24" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="14" t="b">
+      <c r="A26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2049,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C10BEEB-450F-4FF0-8059-0B16FFA7D53E}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:H43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2077,7 +2098,9 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2086,14 +2109,14 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -2143,54 +2166,54 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
@@ -2198,9 +2221,9 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="12"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="G22" t="s">
         <v>41</v>
       </c>
@@ -2232,11 +2255,11 @@
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -2253,9 +2276,9 @@
       <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
@@ -2270,9 +2293,11 @@
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -2289,9 +2314,11 @@
       <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="8" t="s">
         <v>13</v>
       </c>
@@ -2306,11 +2333,13 @@
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -2319,7 +2348,7 @@
       <c r="G28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2327,24 +2356,28 @@
       <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
         <v>7</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25" t="s">
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -2353,32 +2386,36 @@
       <c r="G30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
         <v>8</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="27"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
         <v>9</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="25" t="s">
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -2387,7 +2424,7 @@
       <c r="G32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2395,24 +2432,28 @@
       <c r="B33" s="2">
         <v>10</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25" t="s">
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -2421,32 +2462,36 @@
       <c r="G34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="2">
         <v>12</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2">
         <v>13</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -2455,7 +2500,7 @@
       <c r="G36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="26" t="s">
         <v>51</v>
       </c>
       <c r="I36" t="s">
@@ -2466,24 +2511,28 @@
       <c r="B37" s="2">
         <v>14</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="2">
         <v>15</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25" t="s">
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -2492,32 +2541,36 @@
       <c r="G38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2">
         <v>16</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="2">
         <v>17</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="25" t="s">
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -2526,7 +2579,7 @@
       <c r="G40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="26" t="s">
         <v>52</v>
       </c>
       <c r="I40" t="s">
@@ -2537,24 +2590,28 @@
       <c r="B41" s="2">
         <v>18</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="26"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="2">
         <v>19</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25" t="s">
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -2563,32 +2620,36 @@
       <c r="G42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="26"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2">
         <v>20</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="27"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="2">
         <v>21</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="25" t="s">
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -2597,7 +2658,7 @@
       <c r="G44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="26" t="s">
         <v>53</v>
       </c>
       <c r="I44" t="s">
@@ -2608,24 +2669,28 @@
       <c r="B45" s="2">
         <v>22</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="26"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="2">
         <v>23</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25" t="s">
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -2634,22 +2699,24 @@
       <c r="G46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="26"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="2">
         <v>24</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="27"/>
+      <c r="H47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/品質管理/トップページ.xlsx
+++ b/品質管理/トップページ.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF79D08A-EA86-40B7-B11C-5E034F613404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440400B3-FEA2-4C26-BB9B-A2C6B199F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9675" yWindow="2895" windowWidth="11850" windowHeight="7875" activeTab="1" xr2:uid="{0B56B0BE-939C-447F-AFBE-0B59C6DAA876}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B56B0BE-939C-447F-AFBE-0B59C6DAA876}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="3" r:id="rId1"/>
     <sheet name="機能設計" sheetId="1" r:id="rId2"/>
-    <sheet name="デザイン" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -309,29 +308,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>デザインに関する確認項目</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>存在して、デザインも反映されているかどうか</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>予想される結果</t>
     <rPh sb="0" eb="2">
       <t>ヨソウ</t>
@@ -351,22 +327,6 @@
   </si>
   <si>
     <t>「2.ナビゲーション」に、「マイページ」が存在する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例：ボタンの大きさ、タグ「文字数が切れていないかどうか」</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1202,12 +1162,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>137584</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>201084</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>677334</xdr:colOff>
+      <xdr:colOff>1206500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
@@ -1224,13 +1184,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="137584" y="5503334"/>
-          <a:ext cx="2603500" cy="1312334"/>
+          <a:off x="137584" y="4677833"/>
+          <a:ext cx="3132666" cy="2137835"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 2805"/>
-            <a:gd name="adj2" fmla="val 105003"/>
+            <a:gd name="adj1" fmla="val 2129"/>
+            <a:gd name="adj2" fmla="val 83716"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1688,9 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A1D14-0BB0-4B21-915F-253C0053CB0E}">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1707,7 +1665,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -1760,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="25"/>
       <c r="G7" s="11"/>
@@ -1778,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="25"/>
       <c r="G8" s="11"/>
@@ -1796,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="25"/>
       <c r="G9" s="11"/>
@@ -1814,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="11"/>
@@ -1834,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="11"/>
@@ -1937,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="11"/>
@@ -2070,9 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C10BEEB-450F-4FF0-8059-0B16FFA7D53E}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D27"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2102,10 +2058,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
@@ -2217,7 +2173,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2225,7 +2181,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2245,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -2269,7 +2225,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -2286,7 +2242,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -2307,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -2326,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -2349,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -2425,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
@@ -2501,10 +2457,10 @@
         <v>14</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -2580,10 +2536,10 @@
         <v>14</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2647,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>10</v>
@@ -2659,10 +2615,10 @@
         <v>14</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2720,11 +2676,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="D40:D43"/>
@@ -2738,11 +2694,11 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2865,35 +2821,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72322968-0052-4D13-9388-611239682140}">
-  <dimension ref="B2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/品質管理/トップページ.xlsx
+++ b/品質管理/トップページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440400B3-FEA2-4C26-BB9B-A2C6B199F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5781A2-20A9-4559-BFE1-0AF6357E5B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B56B0BE-939C-447F-AFBE-0B59C6DAA876}"/>
+    <workbookView xWindow="9960" yWindow="1116" windowWidth="10584" windowHeight="11568" activeTab="1" xr2:uid="{0B56B0BE-939C-447F-AFBE-0B59C6DAA876}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="53">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -472,12 +472,31 @@
 「その他」</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>チェック
+（2回目）</t>
+    <rPh sb="7" eb="9">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック
+（2回目）</t>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +535,33 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -609,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +741,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,13 +798,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:rowOff>594360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -810,13 +865,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:rowOff>594360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -877,13 +932,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:rowOff>594360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -944,13 +999,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:rowOff>594360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1011,13 +1066,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>600075</xdr:rowOff>
+          <xdr:rowOff>601980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1073,13 +1128,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>775228</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>226220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>178593</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>222251</xdr:rowOff>
@@ -1166,7 +1221,7 @@
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
@@ -1240,13 +1295,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1915584</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>455084</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -1646,47 +1701,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A1D14-0BB0-4B21-915F-253C0053CB0E}">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="b">
         <v>0</v>
       </c>
@@ -1696,20 +1756,23 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -1717,17 +1780,20 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="25"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -1735,17 +1801,20 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="25"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="2">
         <v>4</v>
@@ -1753,17 +1822,20 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="25"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>5</v>
@@ -1771,17 +1843,20 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="25"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="b">
         <v>0</v>
       </c>
@@ -1791,17 +1866,20 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="25"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="225" x14ac:dyDescent="0.4">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="216" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="b">
         <v>0</v>
       </c>
@@ -1811,18 +1889,21 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="b">
         <v>1</v>
       </c>
@@ -1832,17 +1913,20 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="25"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="b">
         <v>0</v>
       </c>
@@ -1852,18 +1936,21 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="b">
         <v>0</v>
       </c>
@@ -1873,18 +1960,21 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="b">
         <v>0</v>
       </c>
@@ -1894,128 +1984,141 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="b">
         <v>1</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="b">
         <v>1</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="b">
         <v>1</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="b">
         <v>1</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2026,679 +2129,788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C10BEEB-450F-4FF0-8059-0B16FFA7D53E}">
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.19921875" customWidth="1"/>
+    <col min="9" max="9" width="30.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="54" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="54" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" ht="54" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" ht="54" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D14" s="20"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D15" s="20"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="20"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="11"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="21"/>
-      <c r="G22" t="s">
+      <c r="F22" s="21"/>
+      <c r="H22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="F24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="H24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" ht="54" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" ht="54" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="I27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E31" s="28"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="F32" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="26" t="s">
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="28"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="28"/>
+      <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="2:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="F36" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="8" t="s">
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="2:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="26" t="s">
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="2:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="28"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="28"/>
+      <c r="G39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="F40" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="8" t="s">
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="2">
         <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="26" t="s">
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="2">
         <v>20</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E43" s="28"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="28"/>
+      <c r="G43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="2:10" ht="54.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="2">
         <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="F44" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="54.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="2">
         <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="27"/>
-    </row>
-    <row r="46" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="2:10" ht="54.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="2">
         <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="26" t="s">
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="2:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="2:10" ht="54.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="28"/>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E47" s="28"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="28"/>
+      <c r="G47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="28"/>
+      <c r="H47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2716,13 +2928,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:colOff>464820</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>590550</xdr:rowOff>
+                    <xdr:rowOff>594360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2738,13 +2950,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:colOff>464820</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>590550</xdr:rowOff>
+                    <xdr:rowOff>594360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2760,13 +2972,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:colOff>464820</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>590550</xdr:rowOff>
+                    <xdr:rowOff>594360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2782,13 +2994,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:colOff>464820</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>590550</xdr:rowOff>
+                    <xdr:rowOff>594360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2804,13 +3016,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:colOff>464820</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>600075</xdr:rowOff>
+                    <xdr:rowOff>601980</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
